--- a/REVER_DailyTracker_20200601.xlsx
+++ b/REVER_DailyTracker_20200601.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC07681-F1DA-48FD-B3B0-ACC2968EE51F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519" iterate="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="41">
   <si>
     <t>Task</t>
   </si>
@@ -167,15 +161,27 @@
 3. OtherSales(extended warranty ) implementation is going on with PO values/withou PO values to get UnitPrice along with download and upload steps are in Progress.
 4. Mr Mohan san has asked to run GRS and GRD for all centers to know the success and issue while running continueously.</t>
   </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>Issue fixing for PO_CONFIRMATION</t>
+  </si>
+  <si>
+    <t>RPA_Sales</t>
+  </si>
+  <si>
+    <t>Code Optimization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -426,7 +432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -620,33 +626,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -667,7 +673,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -677,8 +683,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -690,7 +696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -701,10 +707,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -718,9 +724,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -734,9 +740,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -750,8 +756,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -768,19 +774,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -798,13 +804,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -818,7 +824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -832,7 +838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -840,7 +846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -848,12 +854,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -861,7 +867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -872,7 +878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -883,7 +889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -894,12 +900,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -917,7 +923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -925,18 +931,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -959,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -968,7 +974,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -977,46 +983,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1029,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1037,18 +1043,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1080,7 +1086,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1089,46 +1095,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1141,26 +1147,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1183,7 +1189,143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43983</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43983</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1192,7 +1334,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1201,46 +1343,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1252,27 +1394,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1437,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43950</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1304,7 +1570,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1313,46 +1579,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1364,27 +1630,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1407,28 +1673,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1437,46 +1691,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1488,27 +1742,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
-  <sheetPr codeName="Sheet6"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1540,7 +1794,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1549,46 +1803,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1600,27 +1854,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
-  <sheetPr codeName="Sheet7"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1643,7 +1897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1652,7 +1906,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1661,270 +1915,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200601.xlsx
+++ b/REVER_DailyTracker_20200601.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0400C012-730E-4641-AF64-CDB3FCA12A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -18,23 +24,17 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" iterate="1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
   <si>
     <t>Task</t>
   </si>
@@ -173,15 +173,24 @@
   <si>
     <t>Code Optimization</t>
   </si>
+  <si>
+    <t>Account Report</t>
+  </si>
+  <si>
+    <t>Format changed fom csv to htmltable then excel completed.  Currency fromat changed</t>
+  </si>
+  <si>
+    <t>KT given to Ram for design html template</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +209,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -280,10 +304,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -320,9 +347,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{ABFC8C37-4400-4A99-8D4A-2F492C20C8CD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,14 +657,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G54"/>
   <sheetViews>
@@ -923,7 +954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1035,12 +1066,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1077,23 +1108,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43983</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="G2" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43983</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
@@ -1147,11 +1198,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1283,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1395,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1519,7 +1570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1631,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1743,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1855,7 +1906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>

--- a/REVER_DailyTracker_20200601.xlsx
+++ b/REVER_DailyTracker_20200601.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0400C012-730E-4641-AF64-CDB3FCA12A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A151DDD2-B69F-4D99-9B65-C7B6A8AEF367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -66,121 +66,31 @@
     <t>% of completion</t>
   </si>
   <si>
-    <t>[Backend] CRM</t>
-  </si>
-  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>DotnetAPP</t>
-  </si>
-  <si>
-    <t>Loginpage (Frontend)</t>
-  </si>
-  <si>
-    <t>1. Datass are fetched from CRM table and displayed the results in dropdownlist dynamically
-2. Customer type dropdownlist has been created using using enum and displayed in right order
-3. Working on onchange events to select all emailid based on customer types.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Visited  customer information from the contact us  page of hayaai website has been recorded in the database using
- PHP and MYQL
-</t>
-  </si>
-  <si>
-    <t>Hayaai website</t>
-  </si>
-  <si>
-    <t>Sending email is in progress</t>
-  </si>
-  <si>
-    <t>data insertion  and email sending are completed, whereas we have tested email sending using gmail.com for contacts.html.
-We are waiting for actual email settings for hayaai site.</t>
-  </si>
-  <si>
-    <t>Email validation and contact number validation has been completed before submiting fields values to the database.</t>
-  </si>
-  <si>
-    <t>RPA_Sale/[Front End]  Full app keyword search</t>
-  </si>
-  <si>
-    <t>Analysing the all tables to fetch all records and keep it as list and obtaining the keyword by filtering from the list and converting 
-the result with paging and pagelisted concept in MVC</t>
-  </si>
-  <si>
-    <t>Searching string in all tables from the entire database has been completed , whereas UI design and development are pending</t>
-  </si>
-  <si>
-    <t>Searching in all tables and fetching the results and displaying the results at bottom of the master pages, whereas other activities
- like styling and crossref link or sublink tasks are pending.</t>
-  </si>
-  <si>
-    <t>Searching results are coming in right order along with query text, whereas a small design issue is pending and also no data found to be implemented.</t>
-  </si>
-  <si>
-    <t>No data found has been implemented if no records found and etc.
-Attended in RPASale_dev deployeement task</t>
-  </si>
-  <si>
-    <t>Today, I was engaged in rpa selenium tasks for DRS, GRS, and GRD
-DRS was done,
-GRS, till dowload portion is over and whereas, upload is pending as issue in converting xls to csv.</t>
-  </si>
-  <si>
-    <t>Jiffy_to_selenium</t>
-  </si>
-  <si>
-    <t>Conversion from jiffy to selenium for the tasks of Goods Receiving Summary and Goods Receiving details are completed,
-whereas the conversion of warranty is WIP</t>
-  </si>
-  <si>
-    <t>Leave on 22-05-2020</t>
-  </si>
-  <si>
-    <t>RPA Customization</t>
-  </si>
-  <si>
-    <t>Conversion from JIFFY to selenium for the tasks of DRS, GRS and GRD are completed, CSV conversion for warranty is in Pending.</t>
-  </si>
-  <si>
-    <t>Customization of RPA tasks named as GRS and GRD are completed,  no data found for warranty and csv header/contents  validations are in progress. Also DRS no data found is also pending.</t>
-  </si>
-  <si>
-    <t>DRS Daily, DRS Weekly and DRS Monthly are completed with download/upload and no data found.
-Warranty csv file is having issue and hence it has been shared to Mohan san.</t>
-  </si>
-  <si>
-    <t>Warranty CSV file is having uploading issue.</t>
-  </si>
-  <si>
-    <t>POC confirmation task  has been implemented at new bot, and it will work for download and upload success</t>
-  </si>
-  <si>
-    <t>1. Fine tuning with DRS, GRS and GRD are done.
-2. POC task has been implementation done with download/upload/nodata found/failed to download steps are tested and 
-3. OtherSales(extended warranty ) implementation is going on with PO values/withou PO values to get UnitPrice along with download and upload steps are in Progress.
-4. Mr Mohan san has asked to run GRS and GRD for all centers to know the success and issue while running continueously.</t>
-  </si>
-  <si>
-    <t>QMVAR</t>
-  </si>
-  <si>
-    <t>Issue fixing for PO_CONFIRMATION</t>
-  </si>
-  <si>
-    <t>RPA_Sales</t>
-  </si>
-  <si>
-    <t>Code Optimization</t>
-  </si>
-  <si>
-    <t>Account Report</t>
-  </si>
-  <si>
-    <t>Format changed fom csv to htmltable then excel completed.  Currency fromat changed</t>
-  </si>
-  <si>
-    <t>KT given to Ram for design html template</t>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>Rever B2C</t>
+  </si>
+  <si>
+    <t>IF full flow with technician tracking integration</t>
+  </si>
+  <si>
+    <t>APK sent.</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
+  <si>
+    <t xml:space="preserve">choose professional video for muji store.poc task tested and added in scheduler.                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RPA,Muji store</t>
   </si>
 </sst>
 </file>
@@ -226,6 +136,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -267,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -303,6 +214,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -310,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -327,33 +251,46 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{ABFC8C37-4400-4A99-8D4A-2F492C20C8CD}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -463,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -665,22 +602,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -704,306 +640,14 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
-      <c r="D2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="D4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="D5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="D9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4">
-        <v>90</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="D12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4">
-        <v>95</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:7">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30">
-      <c r="D25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>80</v>
-      </c>
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30">
-      <c r="D28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="45">
-      <c r="D32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" ht="45">
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7">
-      <c r="G38" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7">
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" ht="30">
-      <c r="D44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" ht="30">
-      <c r="D47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7">
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7">
-      <c r="G51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" ht="105">
-      <c r="D54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1056,7 +700,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1065,24 +709,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1108,43 +751,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>43983</v>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43983</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>41</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
@@ -1188,7 +825,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1197,24 +834,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1240,44 +876,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>43983</v>
+        <v>43950</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="7">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>43983</v>
+        <v>43951</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1">
-        <v>40</v>
-      </c>
-      <c r="F3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1"/>
@@ -1324,7 +960,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1333,24 +969,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1436,7 +1071,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1445,24 +1080,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1489,24 +1123,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1560,7 +1182,119 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>43983</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="24">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1571,22 +1305,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1672,7 +1405,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1683,22 +1416,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1784,7 +1516,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1795,22 +1527,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1896,7 +1627,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1907,22 +1638,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2008,7 +1738,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200601.xlsx
+++ b/REVER_DailyTracker_20200601.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A151DDD2-B69F-4D99-9B65-C7B6A8AEF367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AA27F2-A444-469D-BA68-9C3C761FEDA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t xml:space="preserve"> RPA,Muji store</t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>Macro new requirement changes</t>
   </si>
 </sst>
 </file>
@@ -602,6 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -711,6 +718,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -836,6 +844,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -971,6 +980,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1082,118 +1092,8 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1233,6 +1133,126 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="22">
         <v>1</v>
@@ -1305,6 +1325,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1416,6 +1437,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1527,6 +1549,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1638,6 +1661,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
